--- a/data/long_razon/P23_2-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_2-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-35,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-5,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-22,51%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-61,83; 3,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 36,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 55,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-41,82; 3,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-37,15; 12,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-32,18; 8,28</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-19,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-23,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-6,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-38,61; 4,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 21,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 35,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-37,72; -6,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,02; 10,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,2; -0,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-24,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-21,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,9%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-45,24; -0,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-41,16; 3,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 43,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 19,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 12,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,04; 4,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-24,12%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-17,15%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-14,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,42 +1015,175 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,95; -7,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 5,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 26,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,37; -6,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 2,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,42; -4,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>

--- a/data/long_razon/P23_2-Estudios-long_razon.xlsx
+++ b/data/long_razon/P23_2-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -630,329 +635,217 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.1689226129224241</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.05348504891578133</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.4900938277367152</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.3066421502270556</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.247101507281877</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.7447710524630958</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.08581506133172484</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.1701329222499922</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.637889407580536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.5145844994016757</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3715035291127405</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.1378477310618616</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.148804505991492</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.4410015593248374</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.2253545654670635</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.2115962494839431</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.3340732997310711</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>0.188291003149116</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.3550132823533331</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.3670024418321864</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.534436809504405</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.9489622768253116</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>0.03815495039123321</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.551231031899395</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.4629428872706187</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.04968550828309096</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.277188416875962</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.2190313308782513</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.06079295210048261</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.5273755011522809</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.1890535695314311</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.2298069803335671</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.2085362581179732</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.03176559415263086</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.1487176965353196</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.359165639652391</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.4256748394679077</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2714148534778878</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.1235142996790567</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.04372007009221143</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.3647232421168707</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.02953647909800166</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.2082791735198425</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.277807362286343</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.1260530493823195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.08574471461443668</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.2680166031488292</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.063687052617269</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.4903311079237662</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.05121626383382526</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.5228210260879753</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.1645894921835645</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.00991273037765312</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.6296250601144996</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -960,233 +853,230 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.1619313426029732</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.1952384657360038</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.6575052467339106</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.1891123255910546</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.01221694715547458</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.1698983664211761</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.0114582125311706</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.1007535669394986</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.3730647040670947</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.3950588124207464</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.3951864793891053</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>0.1800775147634283</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.08229648850143877</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.2141375807530888</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.08253812147949594</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.1786080226666642</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.2328267090037988</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>0.1295515596632937</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0.1402945126981502</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.06680390023892786</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.303945179209082</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.513346835351035</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>0.2258600165539748</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.5176457131973674</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.2385009876892872</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.07348256959775759</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.6949635756382266</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.1938300034710544</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.1024194878319021</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.5595315180257845</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2090466233849854</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.17010984925434</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.3192930394530658</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.0004113226959238437</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.1387858562205092</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.4255997974229367</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.3455624361266255</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.2457858481151118</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.2933253259741421</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>0.03696976994223183</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.2675074032930913</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.1337285920696541</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.129578943147675</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2255131787269511</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.2665947719002434</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.01063663130721211</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.06560764573816599</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.9077727653991194</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.4235353286966977</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.05109215062165885</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.5466226792262029</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.1362275017823167</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.04208644095339471</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.6391466025453998</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
